--- a/AAII_Financials/Quarterly/ADEX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ADEX_QTR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>

--- a/AAII_Financials/Quarterly/ADEX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ADEX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="92">
   <si>
     <t>ADEX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,39 +665,39 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H7" s="2" t="s">
         <v>3</v>
       </c>
@@ -710,8 +710,11 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -739,8 +742,11 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -768,8 +774,11 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -797,8 +806,11 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -810,8 +822,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -839,8 +852,11 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -868,8 +884,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -897,8 +916,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -926,8 +948,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -936,22 +961,23 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E17" s="3">
         <v>500</v>
-      </c>
-      <c r="E17" s="3">
-        <v>100</v>
       </c>
       <c r="F17" s="3">
         <v>100</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
+      <c r="G17" s="3">
+        <v>100</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -965,8 +991,11 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -974,13 +1003,13 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="F18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
+      <c r="G18" s="3">
+        <v>-100</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -994,8 +1023,11 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1007,8 +1039,9 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1021,8 +1054,8 @@
       <c r="F20" s="3">
         <v>0</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
+      <c r="G20" s="3">
+        <v>0</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
@@ -1036,8 +1069,11 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1065,8 +1101,11 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1094,22 +1133,25 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
+      <c r="G23" s="3">
+        <v>0</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1123,8 +1165,11 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1152,8 +1197,11 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1181,22 +1229,25 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-100</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
+      <c r="G26" s="3">
+        <v>0</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1210,22 +1261,25 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
+      <c r="G27" s="3">
+        <v>0</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1239,8 +1293,11 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1268,8 +1325,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1297,8 +1357,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1326,8 +1389,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1355,8 +1421,11 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1369,8 +1438,8 @@
       <c r="F32" s="3">
         <v>0</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
+      <c r="G32" s="3">
+        <v>0</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
@@ -1384,22 +1453,25 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
+      <c r="G33" s="3">
+        <v>0</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1413,8 +1485,11 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1442,22 +1517,25 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
+      <c r="G35" s="3">
+        <v>0</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1471,28 +1549,31 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1505,8 +1586,11 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1518,8 +1602,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1531,8 +1616,9 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1540,13 +1626,13 @@
         <v>500</v>
       </c>
       <c r="E41" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="F41" s="3">
         <v>700</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
+      <c r="G41" s="3">
+        <v>700</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1560,8 +1646,11 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1589,8 +1678,11 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1618,8 +1710,11 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1647,8 +1742,11 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1661,8 +1759,8 @@
       <c r="F45" s="3">
         <v>300</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
+      <c r="G45" s="3">
+        <v>300</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1676,23 +1774,26 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>700</v>
+      </c>
+      <c r="E46" s="3">
         <v>800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1000</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1705,8 +1806,11 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1734,8 +1838,11 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1763,8 +1870,11 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1792,8 +1902,11 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1821,8 +1934,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1850,13 +1966,16 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>276200</v>
+        <v>276100</v>
       </c>
       <c r="E52" s="3">
         <v>276200</v>
@@ -1864,8 +1983,8 @@
       <c r="F52" s="3">
         <v>276200</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
+      <c r="G52" s="3">
+        <v>276200</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -1879,8 +1998,11 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1908,23 +2030,26 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>276900</v>
+      </c>
+      <c r="E54" s="3">
         <v>277000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>277100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>277300</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1937,8 +2062,11 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1950,8 +2078,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1963,8 +2092,9 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1992,8 +2122,11 @@
       <c r="K57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2006,8 +2139,8 @@
       <c r="F58" s="3">
         <v>200</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
+      <c r="G58" s="3">
+        <v>200</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2021,22 +2154,25 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E59" s="3">
         <v>300</v>
       </c>
-      <c r="E59" s="3">
-        <v>0</v>
-      </c>
       <c r="F59" s="3">
         <v>0</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
+      <c r="G59" s="3">
+        <v>0</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2050,22 +2186,25 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E60" s="3">
         <v>400</v>
-      </c>
-      <c r="E60" s="3">
-        <v>200</v>
       </c>
       <c r="F60" s="3">
         <v>200</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
+      <c r="G60" s="3">
+        <v>200</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2079,8 +2218,11 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2108,13 +2250,16 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>9700</v>
+        <v>14700</v>
       </c>
       <c r="E62" s="3">
         <v>9700</v>
@@ -2122,8 +2267,8 @@
       <c r="F62" s="3">
         <v>9700</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
+      <c r="G62" s="3">
+        <v>9700</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2137,8 +2282,11 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2166,8 +2314,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2195,8 +2346,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2224,22 +2378,25 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E66" s="3">
         <v>10100</v>
-      </c>
-      <c r="E66" s="3">
-        <v>9800</v>
       </c>
       <c r="F66" s="3">
         <v>9800</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
+      <c r="G66" s="3">
+        <v>9800</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2253,8 +2410,11 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2266,8 +2426,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2295,8 +2456,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2324,8 +2488,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2353,8 +2520,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2382,23 +2552,26 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-17200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-9100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-100</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2411,8 +2584,11 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2440,8 +2616,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2469,8 +2648,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2498,23 +2680,26 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>258800</v>
+      </c>
+      <c r="E76" s="3">
         <v>266900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>267300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>267400</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2527,8 +2712,11 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2556,28 +2744,31 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2590,22 +2781,25 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
+      <c r="G81" s="3">
+        <v>0</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2619,8 +2813,11 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2632,8 +2829,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2661,8 +2859,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2690,8 +2891,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2719,8 +2923,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2748,8 +2955,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2777,8 +2987,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2806,8 +3019,11 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -2818,11 +3034,11 @@
         <v>-100</v>
       </c>
       <c r="F89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G89" s="3">
         <v>-400</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
       </c>
@@ -2835,8 +3051,11 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2848,8 +3067,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2877,8 +3097,11 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2906,8 +3129,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2935,8 +3161,11 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2947,11 +3176,11 @@
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-276000</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
       </c>
@@ -2964,8 +3193,11 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2977,8 +3209,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3006,8 +3239,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3035,8 +3271,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3064,8 +3303,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3093,8 +3335,11 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3105,11 +3350,11 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>277100</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3122,8 +3367,11 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3151,8 +3399,11 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3163,11 +3414,11 @@
         <v>-100</v>
       </c>
       <c r="F102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G102" s="3">
         <v>700</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3178,6 +3429,9 @@
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ADEX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ADEX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="92">
   <si>
     <t>ADEX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,45 +665,47 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
@@ -713,8 +715,14 @@
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -745,8 +753,14 @@
       <c r="L8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -777,8 +791,14 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -809,8 +829,14 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -823,8 +849,10 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -855,8 +883,14 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -887,8 +921,14 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -919,8 +959,14 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -951,8 +997,14 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -962,29 +1014,31 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>600</v>
+      </c>
+      <c r="F17" s="3">
         <v>3000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>100</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
@@ -994,8 +1048,14 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1003,20 +1063,20 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="G18" s="3">
         <v>-500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1026,8 +1086,14 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1040,8 +1106,10 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1049,19 +1117,19 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
@@ -1072,16 +1140,22 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
+      <c r="E21" s="3">
+        <v>1200</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
@@ -1104,8 +1178,14 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1136,28 +1216,34 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F23" s="3">
         <v>-2000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-100</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
+      <c r="I23" s="3">
+        <v>0</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1168,31 +1254,37 @@
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
         <v>0</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
+      <c r="E24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1200,8 +1292,14 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1232,28 +1330,34 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F26" s="3">
         <v>-2000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-100</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
+      <c r="I26" s="3">
+        <v>0</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1264,28 +1368,34 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F27" s="3">
         <v>-2000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
+      <c r="I27" s="3">
+        <v>0</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1296,8 +1406,14 @@
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1328,8 +1444,14 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1360,8 +1482,14 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1392,8 +1520,14 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1424,8 +1558,14 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1433,19 +1573,19 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-1800</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
@@ -1456,28 +1596,34 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F33" s="3">
         <v>-2000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-100</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
+      <c r="I33" s="3">
+        <v>0</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1488,8 +1634,14 @@
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1520,28 +1672,34 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F35" s="3">
         <v>-2000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-100</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
+      <c r="I35" s="3">
+        <v>0</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1552,34 +1710,40 @@
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1589,8 +1753,14 @@
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1603,8 +1773,10 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1617,29 +1789,31 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>200</v>
+      </c>
+      <c r="F41" s="3">
         <v>500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>700</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1649,8 +1823,14 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1681,8 +1861,14 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1713,8 +1899,14 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1745,16 +1937,22 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F45" s="3">
         <v>300</v>
@@ -1762,11 +1960,11 @@
       <c r="G45" s="3">
         <v>300</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
+      <c r="H45" s="3">
+        <v>300</v>
+      </c>
+      <c r="I45" s="3">
+        <v>300</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -1777,29 +1975,35 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>300</v>
+      </c>
+      <c r="E46" s="3">
+        <v>500</v>
+      </c>
+      <c r="F46" s="3">
         <v>700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1000</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1809,8 +2013,14 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1841,8 +2051,14 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1873,8 +2089,14 @@
       <c r="L48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1905,8 +2127,14 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1937,8 +2165,14 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1969,28 +2203,34 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>276400</v>
+      </c>
+      <c r="E52" s="3">
+        <v>276000</v>
+      </c>
+      <c r="F52" s="3">
         <v>276100</v>
-      </c>
-      <c r="E52" s="3">
-        <v>276200</v>
-      </c>
-      <c r="F52" s="3">
-        <v>276200</v>
       </c>
       <c r="G52" s="3">
         <v>276200</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
+      <c r="H52" s="3">
+        <v>276200</v>
+      </c>
+      <c r="I52" s="3">
+        <v>276200</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2001,8 +2241,14 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2033,29 +2279,35 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>276700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>276500</v>
+      </c>
+      <c r="F54" s="3">
         <v>276900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>277000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>277100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>277300</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2065,8 +2317,14 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2079,8 +2337,10 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2093,8 +2353,10 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2125,8 +2387,14 @@
       <c r="L57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2142,11 +2410,11 @@
       <c r="G58" s="3">
         <v>200</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
+      <c r="H58" s="3">
+        <v>200</v>
+      </c>
+      <c r="I58" s="3">
+        <v>200</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2157,28 +2425,34 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F59" s="3">
         <v>3200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>300</v>
       </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
+      <c r="H59" s="3">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3">
+        <v>0</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2189,29 +2463,35 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F60" s="3">
         <v>3300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>200</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2221,8 +2501,14 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2253,28 +2539,34 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>13000</v>
+      </c>
+      <c r="F62" s="3">
         <v>14700</v>
-      </c>
-      <c r="E62" s="3">
-        <v>9700</v>
-      </c>
-      <c r="F62" s="3">
-        <v>9700</v>
       </c>
       <c r="G62" s="3">
         <v>9700</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
+      <c r="H62" s="3">
+        <v>9700</v>
+      </c>
+      <c r="I62" s="3">
+        <v>9700</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -2285,8 +2577,14 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2317,8 +2615,14 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2349,8 +2653,14 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2381,29 +2691,35 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>16400</v>
+      </c>
+      <c r="F66" s="3">
         <v>18000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>10100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>9800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>9800</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2413,8 +2729,14 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2427,8 +2749,10 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2459,8 +2783,14 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2491,8 +2821,14 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2523,8 +2859,14 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2555,29 +2897,35 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-17200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-9100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-100</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2587,8 +2935,14 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2619,8 +2973,14 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2651,8 +3011,14 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2683,29 +3049,35 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>262800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>260000</v>
+      </c>
+      <c r="F76" s="3">
         <v>258800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>266900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>267300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>267400</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2715,8 +3087,14 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2747,34 +3125,40 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2784,28 +3168,34 @@
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E81" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F81" s="3">
         <v>-2000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-100</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
+      <c r="I81" s="3">
+        <v>0</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -2816,8 +3206,14 @@
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2830,8 +3226,10 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2862,8 +3260,14 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2894,8 +3298,14 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2926,8 +3336,14 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2958,8 +3374,14 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2990,8 +3412,14 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3022,8 +3450,14 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3031,20 +3465,20 @@
         <v>-100</v>
       </c>
       <c r="E89" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="F89" s="3">
         <v>-100</v>
       </c>
       <c r="G89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I89" s="3">
         <v>-400</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3054,8 +3488,14 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3068,8 +3508,10 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3100,8 +3542,14 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3132,8 +3580,14 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3164,8 +3618,14 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3173,20 +3633,20 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-276000</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3196,8 +3656,14 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3210,8 +3676,10 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3242,8 +3710,14 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3274,8 +3748,14 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3306,8 +3786,14 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3338,8 +3824,14 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3353,14 +3845,14 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>277100</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3370,8 +3862,14 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3402,8 +3900,14 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3411,20 +3915,20 @@
         <v>-100</v>
       </c>
       <c r="E102" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F102" s="3">
         <v>-100</v>
       </c>
       <c r="G102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I102" s="3">
         <v>700</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3432,6 +3936,12 @@
         <v>3</v>
       </c>
       <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ADEX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ADEX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="92">
   <si>
     <t>ADEX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,50 +665,51 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
@@ -721,8 +722,11 @@
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -759,8 +763,11 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -797,8 +804,11 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -835,8 +845,11 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -851,8 +864,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -889,8 +903,11 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -927,8 +944,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -965,8 +985,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1003,8 +1026,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1016,31 +1042,32 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>400</v>
+      </c>
+      <c r="E17" s="3">
         <v>500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>500</v>
-      </c>
-      <c r="H17" s="3">
-        <v>100</v>
       </c>
       <c r="I17" s="3">
         <v>100</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
+      <c r="J17" s="3">
+        <v>100</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -1054,8 +1081,11 @@
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1063,22 +1093,22 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F18" s="3">
         <v>-600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-500</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-100</v>
       </c>
       <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
+      <c r="J18" s="3">
+        <v>-100</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1092,8 +1122,11 @@
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1108,8 +1141,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1117,22 +1151,22 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F20" s="3">
         <v>1800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1000</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
+      <c r="J20" s="3">
+        <v>0</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
@@ -1146,8 +1180,11 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1155,11 +1192,11 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F21" s="3">
         <v>1200</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1184,8 +1221,11 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1222,31 +1262,34 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E23" s="3">
         <v>2800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-100</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
+      <c r="J23" s="3">
+        <v>0</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1260,16 +1303,19 @@
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>3</v>
+        <v>300</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>3</v>
@@ -1286,8 +1332,8 @@
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
+      <c r="K24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
@@ -1298,8 +1344,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1336,31 +1385,34 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>700</v>
+      </c>
+      <c r="E26" s="3">
         <v>2700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-100</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
+      <c r="J26" s="3">
+        <v>0</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1374,31 +1426,34 @@
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>700</v>
+      </c>
+      <c r="E27" s="3">
         <v>2700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
+      <c r="J27" s="3">
+        <v>0</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1412,8 +1467,11 @@
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1450,8 +1508,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1488,8 +1549,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1526,8 +1590,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1564,8 +1631,11 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1573,22 +1643,22 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1000</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
+      <c r="J32" s="3">
+        <v>0</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
@@ -1602,31 +1672,34 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>700</v>
+      </c>
+      <c r="E33" s="3">
         <v>2700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
+      <c r="J33" s="3">
+        <v>0</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1640,8 +1713,11 @@
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1678,31 +1754,34 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>700</v>
+      </c>
+      <c r="E35" s="3">
         <v>2700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
+      <c r="J35" s="3">
+        <v>0</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1716,37 +1795,40 @@
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1759,8 +1841,11 @@
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1775,8 +1860,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1791,31 +1877,32 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
         <v>100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>200</v>
-      </c>
-      <c r="F41" s="3">
-        <v>500</v>
       </c>
       <c r="G41" s="3">
         <v>500</v>
       </c>
       <c r="H41" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="I41" s="3">
         <v>700</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
+      <c r="J41" s="3">
+        <v>700</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
@@ -1829,8 +1916,11 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1867,8 +1957,11 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1905,8 +1998,11 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1943,19 +2039,22 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
         <v>200</v>
       </c>
       <c r="F45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G45" s="3">
         <v>300</v>
@@ -1966,8 +2065,8 @@
       <c r="I45" s="3">
         <v>300</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
+      <c r="J45" s="3">
+        <v>300</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
@@ -1981,32 +2080,35 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>200</v>
+      </c>
+      <c r="E46" s="3">
         <v>300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1000</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2019,8 +2121,11 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2057,8 +2162,11 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2095,8 +2203,11 @@
       <c r="N48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2133,8 +2244,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2171,8 +2285,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2209,22 +2326,25 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>277700</v>
+      </c>
+      <c r="E52" s="3">
         <v>276400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>276000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>276100</v>
-      </c>
-      <c r="G52" s="3">
-        <v>276200</v>
       </c>
       <c r="H52" s="3">
         <v>276200</v>
@@ -2232,8 +2352,8 @@
       <c r="I52" s="3">
         <v>276200</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
+      <c r="J52" s="3">
+        <v>276200</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
@@ -2247,8 +2367,11 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2285,32 +2408,35 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>277800</v>
+      </c>
+      <c r="E54" s="3">
         <v>276700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>276500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>276900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>277000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>277100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>277300</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2323,8 +2449,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2339,8 +2468,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2355,8 +2485,9 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2393,13 +2524,16 @@
       <c r="N57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E58" s="3">
         <v>200</v>
@@ -2416,8 +2550,8 @@
       <c r="I58" s="3">
         <v>200</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
+      <c r="J58" s="3">
+        <v>200</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
@@ -2431,31 +2565,34 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E59" s="3">
         <v>3700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>300</v>
       </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
       <c r="I59" s="3">
         <v>0</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
+      <c r="J59" s="3">
+        <v>0</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
@@ -2469,31 +2606,34 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E60" s="3">
         <v>3900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>400</v>
-      </c>
-      <c r="H60" s="3">
-        <v>200</v>
       </c>
       <c r="I60" s="3">
         <v>200</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
+      <c r="J60" s="3">
+        <v>200</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
@@ -2507,8 +2647,11 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2545,8 +2688,11 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2554,13 +2700,13 @@
         <v>10000</v>
       </c>
       <c r="E62" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F62" s="3">
         <v>13000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>14700</v>
-      </c>
-      <c r="G62" s="3">
-        <v>9700</v>
       </c>
       <c r="H62" s="3">
         <v>9700</v>
@@ -2568,8 +2714,8 @@
       <c r="I62" s="3">
         <v>9700</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
+      <c r="J62" s="3">
+        <v>9700</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
@@ -2583,8 +2729,11 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2621,8 +2770,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2659,8 +2811,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2697,31 +2852,34 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E66" s="3">
         <v>13900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>16400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>18000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>10100</v>
-      </c>
-      <c r="H66" s="3">
-        <v>9800</v>
       </c>
       <c r="I66" s="3">
         <v>9800</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
+      <c r="J66" s="3">
+        <v>9800</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
@@ -2735,8 +2893,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2751,8 +2912,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2789,8 +2951,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2827,8 +2992,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2865,8 +3033,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2903,32 +3074,35 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-13500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-16000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-17200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-9100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-100</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2941,8 +3115,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2979,8 +3156,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3017,8 +3197,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3055,32 +3238,35 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>263500</v>
+      </c>
+      <c r="E76" s="3">
         <v>262800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>260000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>258800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>266900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>267300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>267400</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3093,8 +3279,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3131,37 +3320,40 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3174,31 +3366,34 @@
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>700</v>
+      </c>
+      <c r="E81" s="3">
         <v>2700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
+      <c r="J81" s="3">
+        <v>0</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -3212,8 +3407,11 @@
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3228,8 +3426,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3266,8 +3465,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3304,8 +3506,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3342,8 +3547,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3380,8 +3588,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3418,8 +3629,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3456,19 +3670,22 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-400</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-100</v>
       </c>
       <c r="G89" s="3">
         <v>-100</v>
@@ -3477,11 +3694,11 @@
         <v>-100</v>
       </c>
       <c r="I89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J89" s="3">
         <v>-400</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3494,8 +3711,11 @@
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3510,8 +3730,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3548,8 +3769,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3586,8 +3810,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3624,8 +3851,11 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3633,11 +3863,11 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>200</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
@@ -3645,11 +3875,11 @@
         <v>0</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-276000</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3662,8 +3892,11 @@
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3678,8 +3911,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3716,8 +3950,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3754,8 +3991,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3792,8 +4032,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3830,13 +4073,16 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -3851,11 +4097,11 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>277100</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3868,8 +4114,11 @@
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3906,8 +4155,11 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3915,10 +4167,10 @@
         <v>-100</v>
       </c>
       <c r="E102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-200</v>
-      </c>
-      <c r="F102" s="3">
-        <v>-100</v>
       </c>
       <c r="G102" s="3">
         <v>-100</v>
@@ -3927,11 +4179,11 @@
         <v>-100</v>
       </c>
       <c r="I102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J102" s="3">
         <v>700</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3942,6 +4194,9 @@
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ADEX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ADEX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="92">
   <si>
     <t>ADEX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,57 +665,58 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
@@ -725,8 +726,14 @@
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -766,8 +773,14 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -807,8 +820,14 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -848,8 +867,14 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -865,8 +890,10 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -906,8 +933,14 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -947,8 +980,14 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -988,8 +1027,14 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1029,8 +1074,14 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1043,38 +1094,40 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F17" s="3">
         <v>400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>3000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>100</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1084,8 +1137,14 @@
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1093,29 +1152,29 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G18" s="3">
         <v>-500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-3000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1125,8 +1184,14 @@
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1142,8 +1207,10 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1151,28 +1218,28 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G20" s="3">
         <v>3300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>1800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>1000</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
@@ -1183,26 +1250,32 @@
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G21" s="3">
         <v>2800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>1200</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1224,8 +1297,14 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1265,37 +1344,43 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="3">
+        <v>700</v>
+      </c>
+      <c r="F23" s="3">
         <v>1000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>2800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>1200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-2000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
+      <c r="L23" s="3">
+        <v>0</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
@@ -1306,22 +1391,28 @@
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>500</v>
+      </c>
+      <c r="F24" s="3">
         <v>300</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
+      <c r="G24" s="3">
+        <v>0</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
@@ -1335,11 +1426,11 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3">
-        <v>0</v>
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
@@ -1347,8 +1438,14 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1388,37 +1485,43 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
+        <v>200</v>
+      </c>
+      <c r="F26" s="3">
         <v>700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>2700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>1200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-2000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
+      <c r="L26" s="3">
+        <v>0</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
@@ -1429,37 +1532,43 @@
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
+        <v>200</v>
+      </c>
+      <c r="F27" s="3">
         <v>700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>2700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>1200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-2000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
+      <c r="L27" s="3">
+        <v>0</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
@@ -1470,8 +1579,14 @@
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1511,8 +1626,14 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1552,8 +1673,14 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1593,8 +1720,14 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1634,8 +1767,14 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1643,28 +1782,28 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="G32" s="3">
         <v>-3300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-1800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-1000</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
@@ -1675,37 +1814,43 @@
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3">
+        <v>200</v>
+      </c>
+      <c r="F33" s="3">
         <v>700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>2700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>1200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-2000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
+      <c r="L33" s="3">
+        <v>0</v>
       </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
@@ -1716,8 +1861,14 @@
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1757,37 +1908,43 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3">
+        <v>200</v>
+      </c>
+      <c r="F35" s="3">
         <v>700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>2700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>1200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-2000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
+      <c r="L35" s="3">
+        <v>0</v>
       </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
@@ -1798,43 +1955,49 @@
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1844,8 +2007,14 @@
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1861,8 +2030,10 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1878,38 +2049,40 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E41" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
         <v>100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>700</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1919,8 +2092,14 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1960,8 +2139,14 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2001,8 +2186,14 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2042,8 +2233,14 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2051,16 +2248,16 @@
         <v>100</v>
       </c>
       <c r="E45" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F45" s="3">
+        <v>100</v>
+      </c>
+      <c r="G45" s="3">
         <v>200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>200</v>
-      </c>
-      <c r="G45" s="3">
-        <v>300</v>
-      </c>
-      <c r="H45" s="3">
-        <v>300</v>
       </c>
       <c r="I45" s="3">
         <v>300</v>
@@ -2068,11 +2265,11 @@
       <c r="J45" s="3">
         <v>300</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
+      <c r="K45" s="3">
+        <v>300</v>
+      </c>
+      <c r="L45" s="3">
+        <v>300</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
@@ -2083,38 +2280,44 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F46" s="3">
         <v>200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1000</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2124,8 +2327,14 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2165,8 +2374,14 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2206,8 +2421,14 @@
       <c r="O48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2247,8 +2468,14 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2288,8 +2515,14 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2329,37 +2562,43 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>25700</v>
+      </c>
+      <c r="E52" s="3">
+        <v>25000</v>
+      </c>
+      <c r="F52" s="3">
         <v>277700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>276400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>276000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>276100</v>
-      </c>
-      <c r="H52" s="3">
-        <v>276200</v>
-      </c>
-      <c r="I52" s="3">
-        <v>276200</v>
       </c>
       <c r="J52" s="3">
         <v>276200</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
+      <c r="K52" s="3">
+        <v>276200</v>
+      </c>
+      <c r="L52" s="3">
+        <v>276200</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
@@ -2370,8 +2609,14 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2411,38 +2656,44 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>26800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>27200</v>
+      </c>
+      <c r="F54" s="3">
         <v>277800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>276700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>276500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>276900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>277000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>277100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>277300</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2452,8 +2703,14 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2469,8 +2726,10 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2486,8 +2745,10 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2527,19 +2788,25 @@
       <c r="O57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>500</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F58" s="3">
         <v>300</v>
-      </c>
-      <c r="E58" s="3">
-        <v>200</v>
-      </c>
-      <c r="F58" s="3">
-        <v>200</v>
       </c>
       <c r="G58" s="3">
         <v>200</v>
@@ -2553,11 +2820,11 @@
       <c r="J58" s="3">
         <v>200</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
+      <c r="K58" s="3">
+        <v>200</v>
+      </c>
+      <c r="L58" s="3">
+        <v>200</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
@@ -2568,37 +2835,43 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>5700</v>
+      </c>
+      <c r="F59" s="3">
         <v>4100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>3700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>3300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>3200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>300</v>
       </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
-      <c r="J59" s="3">
-        <v>0</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
+      <c r="K59" s="3">
+        <v>0</v>
+      </c>
+      <c r="L59" s="3">
+        <v>0</v>
       </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
@@ -2609,38 +2882,44 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>7100</v>
+      </c>
+      <c r="F60" s="3">
         <v>4400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>3900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>3500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>3300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>200</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2650,8 +2929,14 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2691,37 +2976,43 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E62" s="3">
+        <v>7200</v>
+      </c>
+      <c r="F62" s="3">
         <v>10000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>10000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>13000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>14700</v>
-      </c>
-      <c r="H62" s="3">
-        <v>9700</v>
-      </c>
-      <c r="I62" s="3">
-        <v>9700</v>
       </c>
       <c r="J62" s="3">
         <v>9700</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
+      <c r="K62" s="3">
+        <v>9700</v>
+      </c>
+      <c r="L62" s="3">
+        <v>9700</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
@@ -2732,8 +3023,14 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2773,8 +3070,14 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2814,8 +3117,14 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2855,38 +3164,44 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E66" s="3">
         <v>14400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
+        <v>14400</v>
+      </c>
+      <c r="G66" s="3">
         <v>13900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>16400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>18000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>10100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>9800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>9800</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2896,8 +3211,14 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2913,8 +3234,10 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2954,8 +3277,14 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2995,8 +3324,14 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3036,8 +3371,14 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3077,38 +3418,44 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-13700</v>
+        <v>-14500</v>
       </c>
       <c r="E72" s="3">
         <v>-13500</v>
       </c>
       <c r="F72" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="H72" s="3">
         <v>-16000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-17200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-9100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-100</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3118,8 +3465,14 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3159,8 +3512,14 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3200,8 +3559,14 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3241,38 +3606,44 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E76" s="3">
+        <v>12800</v>
+      </c>
+      <c r="F76" s="3">
         <v>263500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>262800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>260000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>258800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>266900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>267300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>267400</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3282,8 +3653,14 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3323,43 +3700,49 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3369,37 +3752,43 @@
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3">
+        <v>200</v>
+      </c>
+      <c r="F81" s="3">
         <v>700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>2700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>1200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-2000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
+      <c r="L81" s="3">
+        <v>0</v>
       </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
@@ -3410,8 +3799,14 @@
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3427,8 +3822,10 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3468,8 +3865,14 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3509,8 +3912,14 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3550,8 +3959,14 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3591,8 +4006,14 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3632,8 +4053,14 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3673,38 +4100,44 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
-        <v>-100</v>
-      </c>
       <c r="F89" s="3">
-        <v>-400</v>
+        <v>-200</v>
       </c>
       <c r="G89" s="3">
         <v>-100</v>
       </c>
       <c r="H89" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="I89" s="3">
         <v>-100</v>
       </c>
       <c r="J89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L89" s="3">
         <v>-400</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3714,8 +4147,14 @@
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3731,8 +4170,10 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3772,8 +4213,14 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3813,8 +4260,14 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3854,38 +4307,44 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>254900</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>200</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-276000</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3895,8 +4354,14 @@
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3912,8 +4377,10 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3953,8 +4420,14 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3994,8 +4467,14 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4035,8 +4514,14 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4076,20 +4561,26 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>600</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-253700</v>
+      </c>
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
@@ -4100,14 +4591,14 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>277100</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4117,8 +4608,14 @@
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4158,38 +4655,44 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E102" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F102" s="3">
         <v>-100</v>
-      </c>
-      <c r="E102" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F102" s="3">
-        <v>-200</v>
       </c>
       <c r="G102" s="3">
         <v>-100</v>
       </c>
       <c r="H102" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="I102" s="3">
         <v>-100</v>
       </c>
       <c r="J102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L102" s="3">
         <v>700</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4197,6 +4700,12 @@
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ADEX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ADEX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="92">
   <si>
     <t>ADEX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,61 +665,62 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
@@ -732,8 +733,11 @@
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -779,8 +783,11 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -826,8 +833,11 @@
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -873,8 +883,11 @@
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -892,8 +905,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -939,8 +953,11 @@
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -986,8 +1003,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1033,8 +1053,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1080,8 +1103,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1096,40 +1122,41 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>3</v>
+      <c r="D17" s="3">
+        <v>900</v>
       </c>
       <c r="E17" s="3">
+        <v>900</v>
+      </c>
+      <c r="F17" s="3">
         <v>1400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>500</v>
-      </c>
-      <c r="K17" s="3">
-        <v>100</v>
       </c>
       <c r="L17" s="3">
         <v>100</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
+      <c r="M17" s="3">
+        <v>100</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
@@ -1143,8 +1170,11 @@
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1152,31 +1182,31 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-3000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-500</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-100</v>
       </c>
       <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
+      <c r="M18" s="3">
+        <v>-100</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
@@ -1190,8 +1220,11 @@
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1209,8 +1242,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1218,31 +1252,31 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>2100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>3300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1000</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
+      <c r="M20" s="3">
+        <v>0</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
@@ -1256,29 +1290,32 @@
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="3">
+      <c r="E21" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="3">
         <v>1000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1200</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1303,8 +1340,11 @@
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1314,20 +1354,20 @@
       <c r="E22" s="3">
         <v>0</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1350,40 +1390,43 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>3</v>
+      <c r="D23" s="3">
+        <v>-600</v>
       </c>
       <c r="E23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F23" s="3">
         <v>700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
+      <c r="M23" s="3">
+        <v>0</v>
       </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
@@ -1397,8 +1440,11 @@
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1406,16 +1452,16 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>300</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
+      <c r="H24" s="3">
+        <v>0</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
@@ -1432,8 +1478,8 @@
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
+      <c r="N24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
@@ -1444,8 +1490,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1491,40 +1540,43 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>-700</v>
       </c>
       <c r="E26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F26" s="3">
         <v>200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
+      <c r="M26" s="3">
+        <v>0</v>
       </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
@@ -1538,40 +1590,43 @@
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>-700</v>
       </c>
       <c r="E27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F27" s="3">
         <v>200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
+      <c r="M27" s="3">
+        <v>0</v>
       </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
@@ -1585,8 +1640,11 @@
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1632,8 +1690,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1679,8 +1740,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1726,8 +1790,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1773,8 +1840,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1782,31 +1852,31 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-2100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-3300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1000</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
+      <c r="M32" s="3">
+        <v>0</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
@@ -1820,40 +1890,43 @@
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>-700</v>
       </c>
       <c r="E33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F33" s="3">
         <v>200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
+      <c r="M33" s="3">
+        <v>0</v>
       </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
@@ -1867,8 +1940,11 @@
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1914,40 +1990,43 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>-700</v>
       </c>
       <c r="E35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F35" s="3">
         <v>200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
+      <c r="M35" s="3">
+        <v>0</v>
       </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
@@ -1961,46 +2040,49 @@
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2013,8 +2095,11 @@
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2032,8 +2117,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2051,40 +2137,41 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100</v>
+      </c>
+      <c r="E41" s="3">
         <v>200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1000</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
         <v>100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>200</v>
-      </c>
-      <c r="I41" s="3">
-        <v>500</v>
       </c>
       <c r="J41" s="3">
         <v>500</v>
       </c>
       <c r="K41" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="L41" s="3">
         <v>700</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
+      <c r="M41" s="3">
+        <v>700</v>
       </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
@@ -2098,8 +2185,11 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2145,31 +2235,34 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>0</v>
+      <c r="D43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+        <v>700</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
@@ -2192,8 +2285,11 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2239,8 +2335,11 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2248,19 +2347,19 @@
         <v>100</v>
       </c>
       <c r="E45" s="3">
+        <v>100</v>
+      </c>
+      <c r="F45" s="3">
         <v>1200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>100</v>
-      </c>
-      <c r="G45" s="3">
-        <v>200</v>
       </c>
       <c r="H45" s="3">
         <v>200</v>
       </c>
       <c r="I45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J45" s="3">
         <v>300</v>
@@ -2271,8 +2370,8 @@
       <c r="L45" s="3">
         <v>300</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
+      <c r="M45" s="3">
+        <v>300</v>
       </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
@@ -2286,41 +2385,44 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>100</v>
+      </c>
+      <c r="E46" s="3">
         <v>1100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1000</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2333,8 +2435,11 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2380,8 +2485,11 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2427,8 +2535,11 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2474,8 +2585,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2521,8 +2635,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2568,31 +2685,34 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>26300</v>
+      </c>
+      <c r="E52" s="3">
         <v>25700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>25000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>277700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>276400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>276000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>276100</v>
-      </c>
-      <c r="J52" s="3">
-        <v>276200</v>
       </c>
       <c r="K52" s="3">
         <v>276200</v>
@@ -2600,8 +2720,8 @@
       <c r="L52" s="3">
         <v>276200</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
+      <c r="M52" s="3">
+        <v>276200</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
@@ -2615,8 +2735,11 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2662,41 +2785,44 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>26400</v>
+      </c>
+      <c r="E54" s="3">
         <v>26800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>27200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>277800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>276700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>276500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>276900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>277000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>277100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>277300</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2709,8 +2835,11 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2728,8 +2857,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2747,8 +2877,9 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2794,8 +2925,11 @@
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2803,13 +2937,13 @@
         <v>500</v>
       </c>
       <c r="E58" s="3">
+        <v>500</v>
+      </c>
+      <c r="F58" s="3">
         <v>1400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>300</v>
-      </c>
-      <c r="G58" s="3">
-        <v>200</v>
       </c>
       <c r="H58" s="3">
         <v>200</v>
@@ -2826,8 +2960,8 @@
       <c r="L58" s="3">
         <v>200</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
+      <c r="M58" s="3">
+        <v>200</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
@@ -2841,40 +2975,43 @@
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>6500</v>
+        <v>7300</v>
       </c>
       <c r="E59" s="3">
+        <v>7000</v>
+      </c>
+      <c r="F59" s="3">
         <v>5700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>300</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
       <c r="L59" s="3">
         <v>0</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
+      <c r="M59" s="3">
+        <v>0</v>
       </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
@@ -2888,40 +3025,43 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E60" s="3">
         <v>7500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>7100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>400</v>
-      </c>
-      <c r="K60" s="3">
-        <v>200</v>
       </c>
       <c r="L60" s="3">
         <v>200</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
+      <c r="M60" s="3">
+        <v>200</v>
       </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
@@ -2935,8 +3075,11 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2982,8 +3125,11 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2991,22 +3137,22 @@
         <v>7400</v>
       </c>
       <c r="E62" s="3">
+        <v>7400</v>
+      </c>
+      <c r="F62" s="3">
         <v>7200</v>
-      </c>
-      <c r="F62" s="3">
-        <v>10000</v>
       </c>
       <c r="G62" s="3">
         <v>10000</v>
       </c>
       <c r="H62" s="3">
+        <v>10000</v>
+      </c>
+      <c r="I62" s="3">
         <v>13000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>14700</v>
-      </c>
-      <c r="J62" s="3">
-        <v>9700</v>
       </c>
       <c r="K62" s="3">
         <v>9700</v>
@@ -3014,8 +3160,8 @@
       <c r="L62" s="3">
         <v>9700</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
+      <c r="M62" s="3">
+        <v>9700</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
@@ -3029,8 +3175,11 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3076,8 +3225,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3123,8 +3275,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3170,40 +3325,43 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E66" s="3">
         <v>14800</v>
-      </c>
-      <c r="E66" s="3">
-        <v>14400</v>
       </c>
       <c r="F66" s="3">
         <v>14400</v>
       </c>
       <c r="G66" s="3">
+        <v>14400</v>
+      </c>
+      <c r="H66" s="3">
         <v>13900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>16400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>18000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>10100</v>
-      </c>
-      <c r="K66" s="3">
-        <v>9800</v>
       </c>
       <c r="L66" s="3">
         <v>9800</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
+      <c r="M66" s="3">
+        <v>9800</v>
       </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
@@ -3217,8 +3375,11 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3236,8 +3397,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3283,8 +3445,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3330,8 +3495,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3377,8 +3545,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3424,41 +3595,44 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-14500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-13500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-13700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-13500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-16000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-17200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-9100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-100</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3471,8 +3645,11 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3518,8 +3695,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3565,8 +3745,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3612,41 +3795,44 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>3</v>
+      <c r="D76" s="3">
+        <v>11200</v>
       </c>
       <c r="E76" s="3">
+        <v>11900</v>
+      </c>
+      <c r="F76" s="3">
         <v>12800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>263500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>262800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>260000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>258800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>266900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>267300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>267400</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3659,8 +3845,11 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3706,46 +3895,49 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3758,40 +3950,43 @@
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>-700</v>
       </c>
       <c r="E81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F81" s="3">
         <v>200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
+      <c r="M81" s="3">
+        <v>0</v>
       </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
@@ -3805,8 +4000,11 @@
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3824,8 +4022,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3871,8 +4070,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3918,8 +4120,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3965,8 +4170,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4012,8 +4220,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4059,8 +4270,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4106,28 +4320,31 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-900</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-200</v>
       </c>
       <c r="F89" s="3">
         <v>-200</v>
       </c>
       <c r="G89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-400</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-100</v>
       </c>
       <c r="J89" s="3">
         <v>-100</v>
@@ -4136,11 +4353,11 @@
         <v>-100</v>
       </c>
       <c r="L89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M89" s="3">
         <v>-400</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4153,8 +4370,11 @@
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4172,8 +4392,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4219,8 +4440,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4266,8 +4490,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4313,8 +4540,11 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4322,20 +4552,20 @@
         <v>-400</v>
       </c>
       <c r="E94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F94" s="3">
         <v>254900</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>200</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
@@ -4343,11 +4573,11 @@
         <v>0</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-276000</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4360,8 +4590,11 @@
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4379,8 +4612,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4426,8 +4660,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4473,8 +4710,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4520,8 +4760,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4567,23 +4810,26 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>400</v>
+      </c>
+      <c r="E100" s="3">
         <v>600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-253700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
@@ -4597,11 +4843,11 @@
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>277100</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4614,8 +4860,11 @@
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4661,28 +4910,31 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1000</v>
-      </c>
-      <c r="F102" s="3">
-        <v>-100</v>
       </c>
       <c r="G102" s="3">
         <v>-100</v>
       </c>
       <c r="H102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I102" s="3">
         <v>-200</v>
-      </c>
-      <c r="I102" s="3">
-        <v>-100</v>
       </c>
       <c r="J102" s="3">
         <v>-100</v>
@@ -4691,11 +4943,11 @@
         <v>-100</v>
       </c>
       <c r="L102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M102" s="3">
         <v>700</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4706,6 +4958,9 @@
         <v>3</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ADEX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ADEX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="92">
   <si>
     <t>ADEX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,65 +665,66 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
@@ -736,8 +737,11 @@
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -786,8 +790,11 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -836,8 +843,11 @@
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -886,8 +896,11 @@
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -906,8 +919,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -956,8 +970,11 @@
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1006,8 +1023,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1056,8 +1076,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1106,8 +1129,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1123,43 +1149,44 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>900</v>
+      <c r="D17" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E17" s="3">
         <v>900</v>
       </c>
       <c r="F17" s="3">
+        <v>900</v>
+      </c>
+      <c r="G17" s="3">
         <v>1400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>500</v>
-      </c>
-      <c r="L17" s="3">
-        <v>100</v>
       </c>
       <c r="M17" s="3">
         <v>100</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
+      <c r="N17" s="3">
+        <v>100</v>
       </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
@@ -1173,8 +1200,11 @@
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1185,31 +1215,31 @@
         <v>-900</v>
       </c>
       <c r="F18" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G18" s="3">
         <v>-1400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-3000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-500</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-100</v>
       </c>
       <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
+      <c r="N18" s="3">
+        <v>-100</v>
       </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
@@ -1223,8 +1253,11 @@
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1243,8 +1276,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1252,34 +1286,34 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>2100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>3300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1000</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
+      <c r="N20" s="3">
+        <v>0</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
@@ -1293,8 +1327,11 @@
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1302,23 +1339,23 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F21" s="3">
         <v>-900</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="G21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="3">
         <v>1000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1200</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1343,8 +1380,11 @@
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1354,8 +1394,8 @@
       <c r="E22" s="3">
         <v>0</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
+      <c r="F22" s="3">
+        <v>0</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
@@ -1369,8 +1409,8 @@
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1393,43 +1433,46 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-100</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
+      <c r="N23" s="3">
+        <v>0</v>
       </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
@@ -1443,8 +1486,11 @@
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1455,16 +1501,16 @@
         <v>0</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>300</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
+      <c r="I24" s="3">
+        <v>0</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
@@ -1481,8 +1527,8 @@
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
+      <c r="O24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P24" s="3">
         <v>0</v>
@@ -1493,8 +1539,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1543,43 +1592,46 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
         <v>-700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-100</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
+      <c r="N26" s="3">
+        <v>0</v>
       </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
@@ -1593,43 +1645,46 @@
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
         <v>-700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-100</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
+      <c r="N27" s="3">
+        <v>0</v>
       </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
@@ -1643,8 +1698,11 @@
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1693,8 +1751,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1743,8 +1804,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1793,8 +1857,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1843,8 +1910,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1852,34 +1922,34 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-2100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-3300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1000</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
+      <c r="N32" s="3">
+        <v>0</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
@@ -1893,43 +1963,46 @@
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3">
         <v>-700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
+      <c r="N33" s="3">
+        <v>0</v>
       </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
@@ -1943,8 +2016,11 @@
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1993,43 +2069,46 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3">
         <v>-700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
+      <c r="N35" s="3">
+        <v>0</v>
       </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
@@ -2043,49 +2122,52 @@
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2098,8 +2180,11 @@
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2118,8 +2203,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2138,43 +2224,44 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>200</v>
+      </c>
+      <c r="E41" s="3">
         <v>100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1000</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
       <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
         <v>100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>200</v>
-      </c>
-      <c r="J41" s="3">
-        <v>500</v>
       </c>
       <c r="K41" s="3">
         <v>500</v>
       </c>
       <c r="L41" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="M41" s="3">
         <v>700</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
+      <c r="N41" s="3">
+        <v>700</v>
       </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
@@ -2188,8 +2275,11 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2238,20 +2328,23 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F43" s="3">
         <v>700</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2264,8 +2357,8 @@
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
+      <c r="K43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
@@ -2288,8 +2381,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2338,8 +2434,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2350,19 +2449,19 @@
         <v>100</v>
       </c>
       <c r="F45" s="3">
+        <v>100</v>
+      </c>
+      <c r="G45" s="3">
         <v>1200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>100</v>
-      </c>
-      <c r="H45" s="3">
-        <v>200</v>
       </c>
       <c r="I45" s="3">
         <v>200</v>
       </c>
       <c r="J45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K45" s="3">
         <v>300</v>
@@ -2373,8 +2472,8 @@
       <c r="M45" s="3">
         <v>300</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
+      <c r="N45" s="3">
+        <v>300</v>
       </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
@@ -2388,44 +2487,47 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>400</v>
+      </c>
+      <c r="E46" s="3">
         <v>100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1000</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2438,8 +2540,11 @@
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2488,8 +2593,11 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2538,8 +2646,11 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2588,8 +2699,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2638,8 +2752,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2688,34 +2805,37 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>21500</v>
+      </c>
+      <c r="E52" s="3">
         <v>26300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>25700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>25000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>277700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>276400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>276000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>276100</v>
-      </c>
-      <c r="K52" s="3">
-        <v>276200</v>
       </c>
       <c r="L52" s="3">
         <v>276200</v>
@@ -2723,8 +2843,8 @@
       <c r="M52" s="3">
         <v>276200</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
+      <c r="N52" s="3">
+        <v>276200</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>3</v>
@@ -2738,8 +2858,11 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2788,44 +2911,47 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>21900</v>
+      </c>
+      <c r="E54" s="3">
         <v>26400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>26800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>27200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>277800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>276700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>276500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>276900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>277000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>277100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>277300</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2838,8 +2964,11 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2858,8 +2987,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2878,8 +3008,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2928,8 +3059,11 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2940,13 +3074,13 @@
         <v>500</v>
       </c>
       <c r="F58" s="3">
+        <v>500</v>
+      </c>
+      <c r="G58" s="3">
         <v>1400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>300</v>
-      </c>
-      <c r="H58" s="3">
-        <v>200</v>
       </c>
       <c r="I58" s="3">
         <v>200</v>
@@ -2963,8 +3097,8 @@
       <c r="M58" s="3">
         <v>200</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
+      <c r="N58" s="3">
+        <v>200</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>3</v>
@@ -2978,43 +3112,46 @@
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E59" s="3">
         <v>7300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>7000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>5700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>300</v>
       </c>
-      <c r="L59" s="3">
-        <v>0</v>
-      </c>
       <c r="M59" s="3">
         <v>0</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
+      <c r="N59" s="3">
+        <v>0</v>
       </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
@@ -3028,43 +3165,46 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E60" s="3">
         <v>7800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>7500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>7100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>400</v>
-      </c>
-      <c r="L60" s="3">
-        <v>200</v>
       </c>
       <c r="M60" s="3">
         <v>200</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
+      <c r="N60" s="3">
+        <v>200</v>
       </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
@@ -3078,8 +3218,11 @@
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3128,34 +3271,37 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7400</v>
+        <v>7300</v>
       </c>
       <c r="E62" s="3">
         <v>7400</v>
       </c>
       <c r="F62" s="3">
+        <v>7400</v>
+      </c>
+      <c r="G62" s="3">
         <v>7200</v>
-      </c>
-      <c r="G62" s="3">
-        <v>10000</v>
       </c>
       <c r="H62" s="3">
         <v>10000</v>
       </c>
       <c r="I62" s="3">
+        <v>10000</v>
+      </c>
+      <c r="J62" s="3">
         <v>13000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>14700</v>
-      </c>
-      <c r="K62" s="3">
-        <v>9700</v>
       </c>
       <c r="L62" s="3">
         <v>9700</v>
@@ -3163,8 +3309,8 @@
       <c r="M62" s="3">
         <v>9700</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
+      <c r="N62" s="3">
+        <v>9700</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>3</v>
@@ -3178,8 +3324,11 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3228,8 +3377,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3278,8 +3430,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3328,43 +3483,46 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E66" s="3">
         <v>15200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>14800</v>
-      </c>
-      <c r="F66" s="3">
-        <v>14400</v>
       </c>
       <c r="G66" s="3">
         <v>14400</v>
       </c>
       <c r="H66" s="3">
+        <v>14400</v>
+      </c>
+      <c r="I66" s="3">
         <v>13900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>16400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>18000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>10100</v>
-      </c>
-      <c r="L66" s="3">
-        <v>9800</v>
       </c>
       <c r="M66" s="3">
         <v>9800</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
+      <c r="N66" s="3">
+        <v>9800</v>
       </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
@@ -3378,8 +3536,11 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3398,8 +3559,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3448,8 +3610,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3498,8 +3663,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3548,8 +3716,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3598,44 +3769,47 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-31700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-15200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-14500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-13500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-13700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-13500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-16000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-17200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-9100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-100</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3648,8 +3822,11 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3698,8 +3875,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3748,8 +3928,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3798,44 +3981,47 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E76" s="3">
         <v>11200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>11900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>12800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>263500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>262800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>260000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>258800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>266900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>267300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>267400</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3848,8 +4034,11 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3898,49 +4087,52 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3953,43 +4145,46 @@
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3">
         <v>-700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
+      <c r="N81" s="3">
+        <v>0</v>
       </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
@@ -4003,8 +4198,11 @@
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4023,8 +4221,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4073,8 +4272,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4123,8 +4325,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4173,8 +4378,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4223,8 +4431,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4273,8 +4484,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4323,31 +4537,34 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-900</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-200</v>
       </c>
       <c r="G89" s="3">
         <v>-200</v>
       </c>
       <c r="H89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-400</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-100</v>
       </c>
       <c r="K89" s="3">
         <v>-100</v>
@@ -4356,11 +4573,11 @@
         <v>-100</v>
       </c>
       <c r="M89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N89" s="3">
         <v>-400</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4373,8 +4590,11 @@
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4393,8 +4613,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4443,8 +4664,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4493,8 +4717,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4543,32 +4770,35 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-400</v>
+        <v>5000</v>
       </c>
       <c r="E94" s="3">
         <v>-400</v>
       </c>
       <c r="F94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G94" s="3">
         <v>254900</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>200</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
@@ -4576,11 +4806,11 @@
         <v>0</v>
       </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-276000</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4593,8 +4823,11 @@
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4613,8 +4846,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4663,8 +4897,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4713,8 +4950,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4763,8 +5003,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4813,26 +5056,29 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E100" s="3">
         <v>400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-253700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
@@ -4846,11 +5092,11 @@
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>277100</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4863,8 +5109,11 @@
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4913,31 +5162,34 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1000</v>
-      </c>
-      <c r="G102" s="3">
-        <v>-100</v>
       </c>
       <c r="H102" s="3">
         <v>-100</v>
       </c>
       <c r="I102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J102" s="3">
         <v>-200</v>
-      </c>
-      <c r="J102" s="3">
-        <v>-100</v>
       </c>
       <c r="K102" s="3">
         <v>-100</v>
@@ -4946,11 +5198,11 @@
         <v>-100</v>
       </c>
       <c r="M102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N102" s="3">
         <v>700</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4961,6 +5213,9 @@
         <v>3</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
